--- a/WeeklyReport_BATeam/Template/ReportTemplate.xlsx
+++ b/WeeklyReport_BATeam/Template/ReportTemplate.xlsx
@@ -66,7 +66,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +94,12 @@
     <font>
       <i/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -209,9 +218,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -221,27 +233,30 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -552,107 +567,108 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:J5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="20" style="11" customWidth="1"/>
+    <col min="3" max="3" width="44.88671875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="13" style="11" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="19.77734375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="11" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -660,36 +676,36 @@
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="1" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -706,6 +722,7 @@
     <mergeCell ref="I7:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -715,108 +732,111 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.21875" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="38.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
-    <col min="6" max="6" width="18.77734375" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="38.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="18.77734375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="20.77734375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="11"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <f>'Tuần này'!A4:J5</f>
         <v>0</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -824,36 +844,36 @@
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="1" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -870,5 +890,6 @@
     <mergeCell ref="J7:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>